--- a/Auxiliar.xlsx
+++ b/Auxiliar.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +472,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>175204</t>
+          <t>175705</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CDCDCF1</t>
+          <t>CDCDCO1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -476,46 +497,492 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>CDCDRO1</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>CDGD</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>2025-4</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>6010010007</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>CDSETSA</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>2025-4</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>CDVM</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>2025-4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>6010010007</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>2026-1</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>6010010007</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>6010010077</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Auxiliar.xlsx
+++ b/Auxiliar.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +472,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>175204</t>
+          <t>663914</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>663915</t>
         </is>
       </c>
     </row>
@@ -463,59 +489,8141 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2025-4</t>
+          <t>2024-2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>6010010007</t>
+          <t>6030010007</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>CDCDCO1</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>CDCDCO2</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="n"/>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>CDCDCS1</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="n"/>
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n"/>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="n"/>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="B172" s="1" t="n"/>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n"/>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="n"/>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="n"/>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="n"/>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="n"/>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="n"/>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="n"/>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="n"/>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="n"/>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="n"/>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="n"/>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="n"/>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>CDCDMZ1</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="n"/>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="n"/>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="n"/>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="n"/>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="n"/>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="n"/>
+      <c r="C203" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="n"/>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="n"/>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="n"/>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="n"/>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="n"/>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="n"/>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="n"/>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="1" t="n"/>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="n"/>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="n"/>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="n"/>
+      <c r="C216" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="n"/>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="n"/>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="n"/>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="n"/>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="n"/>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="n"/>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="n"/>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="n"/>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="n"/>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="n"/>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="n"/>
+      <c r="C228" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="n"/>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="n"/>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="n"/>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="n"/>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="n"/>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="n"/>
+      <c r="C234" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="n"/>
+      <c r="C235" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="n"/>
+      <c r="C236" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="n"/>
+      <c r="C237" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="n"/>
+      <c r="C238" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="n"/>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n"/>
+      <c r="B240" s="1" t="n"/>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="n"/>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>CDCDRO1</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="n"/>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="n"/>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="n"/>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="n"/>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="n"/>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="n"/>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="n"/>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="n"/>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="n"/>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="n"/>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="n"/>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="n"/>
+      <c r="C254" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="n"/>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="n"/>
+      <c r="C256" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="n"/>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n"/>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n"/>
+      <c r="B259" s="1" t="n"/>
+      <c r="C259" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n"/>
+      <c r="B260" s="1" t="n"/>
+      <c r="C260" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n"/>
+      <c r="B261" s="1" t="n"/>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n"/>
+      <c r="B262" s="1" t="n"/>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n"/>
+      <c r="B263" s="1" t="n"/>
+      <c r="C263" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n"/>
+      <c r="B264" s="1" t="n"/>
+      <c r="C264" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n"/>
+      <c r="B265" s="1" t="n"/>
+      <c r="C265" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n"/>
+      <c r="B266" s="1" t="n"/>
+      <c r="C266" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n"/>
+      <c r="B267" s="1" t="n"/>
+      <c r="C267" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n"/>
+      <c r="B268" s="1" t="n"/>
+      <c r="C268" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n"/>
+      <c r="B269" s="1" t="n"/>
+      <c r="C269" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n"/>
+      <c r="B270" s="1" t="n"/>
+      <c r="C270" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n"/>
+      <c r="B271" s="1" t="n"/>
+      <c r="C271" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n"/>
+      <c r="B272" s="1" t="n"/>
+      <c r="C272" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n"/>
+      <c r="B273" s="1" t="n"/>
+      <c r="C273" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n"/>
+      <c r="B274" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C274" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n"/>
+      <c r="B275" s="1" t="n"/>
+      <c r="C275" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n"/>
+      <c r="B276" s="1" t="n"/>
+      <c r="C276" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n"/>
+      <c r="B277" s="1" t="n"/>
+      <c r="C277" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n"/>
+      <c r="B278" s="1" t="n"/>
+      <c r="C278" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n"/>
+      <c r="B279" s="1" t="n"/>
+      <c r="C279" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n"/>
+      <c r="B280" s="1" t="n"/>
+      <c r="C280" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n"/>
+      <c r="B281" s="1" t="n"/>
+      <c r="C281" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n"/>
+      <c r="B282" s="1" t="n"/>
+      <c r="C282" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n"/>
+      <c r="B283" s="1" t="n"/>
+      <c r="C283" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n"/>
+      <c r="B284" s="1" t="n"/>
+      <c r="C284" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n"/>
+      <c r="B285" s="1" t="n"/>
+      <c r="C285" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n"/>
+      <c r="B286" s="1" t="n"/>
+      <c r="C286" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n"/>
+      <c r="B287" s="1" t="n"/>
+      <c r="C287" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n"/>
+      <c r="B288" s="1" t="n"/>
+      <c r="C288" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n"/>
+      <c r="B289" s="1" t="n"/>
+      <c r="C289" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
         <is>
           <t>CDGD</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>2025-4</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>6010010007</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="B290" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C290" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n"/>
+      <c r="B291" s="1" t="n"/>
+      <c r="C291" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n"/>
+      <c r="B292" s="1" t="n"/>
+      <c r="C292" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n"/>
+      <c r="B293" s="1" t="n"/>
+      <c r="C293" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n"/>
+      <c r="B294" s="1" t="n"/>
+      <c r="C294" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n"/>
+      <c r="B295" s="1" t="n"/>
+      <c r="C295" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n"/>
+      <c r="B296" s="1" t="n"/>
+      <c r="C296" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n"/>
+      <c r="B297" s="1" t="n"/>
+      <c r="C297" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n"/>
+      <c r="B298" s="1" t="n"/>
+      <c r="C298" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n"/>
+      <c r="B299" s="1" t="n"/>
+      <c r="C299" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n"/>
+      <c r="B300" s="1" t="n"/>
+      <c r="C300" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n"/>
+      <c r="B301" s="1" t="n"/>
+      <c r="C301" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n"/>
+      <c r="B302" s="1" t="n"/>
+      <c r="C302" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n"/>
+      <c r="B303" s="1" t="n"/>
+      <c r="C303" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n"/>
+      <c r="B304" s="1" t="n"/>
+      <c r="C304" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n"/>
+      <c r="B305" s="1" t="n"/>
+      <c r="C305" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n"/>
+      <c r="B306" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C306" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n"/>
+      <c r="B307" s="1" t="n"/>
+      <c r="C307" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n"/>
+      <c r="B308" s="1" t="n"/>
+      <c r="C308" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n"/>
+      <c r="B309" s="1" t="n"/>
+      <c r="C309" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n"/>
+      <c r="B310" s="1" t="n"/>
+      <c r="C310" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n"/>
+      <c r="B311" s="1" t="n"/>
+      <c r="C311" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n"/>
+      <c r="B312" s="1" t="n"/>
+      <c r="C312" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n"/>
+      <c r="B313" s="1" t="n"/>
+      <c r="C313" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n"/>
+      <c r="B314" s="1" t="n"/>
+      <c r="C314" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n"/>
+      <c r="B315" s="1" t="n"/>
+      <c r="C315" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n"/>
+      <c r="B316" s="1" t="n"/>
+      <c r="C316" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n"/>
+      <c r="B317" s="1" t="n"/>
+      <c r="C317" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n"/>
+      <c r="B318" s="1" t="n"/>
+      <c r="C318" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n"/>
+      <c r="B319" s="1" t="n"/>
+      <c r="C319" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n"/>
+      <c r="B320" s="1" t="n"/>
+      <c r="C320" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n"/>
+      <c r="B321" s="1" t="n"/>
+      <c r="C321" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n"/>
+      <c r="B322" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C322" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n"/>
+      <c r="B323" s="1" t="n"/>
+      <c r="C323" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n"/>
+      <c r="B324" s="1" t="n"/>
+      <c r="C324" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n"/>
+      <c r="B325" s="1" t="n"/>
+      <c r="C325" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n"/>
+      <c r="B326" s="1" t="n"/>
+      <c r="C326" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n"/>
+      <c r="B327" s="1" t="n"/>
+      <c r="C327" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n"/>
+      <c r="B328" s="1" t="n"/>
+      <c r="C328" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n"/>
+      <c r="B329" s="1" t="n"/>
+      <c r="C329" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n"/>
+      <c r="B330" s="1" t="n"/>
+      <c r="C330" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n"/>
+      <c r="B331" s="1" t="n"/>
+      <c r="C331" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n"/>
+      <c r="B332" s="1" t="n"/>
+      <c r="C332" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n"/>
+      <c r="B333" s="1" t="n"/>
+      <c r="C333" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n"/>
+      <c r="B334" s="1" t="n"/>
+      <c r="C334" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n"/>
+      <c r="B335" s="1" t="n"/>
+      <c r="C335" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n"/>
+      <c r="B336" s="1" t="n"/>
+      <c r="C336" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n"/>
+      <c r="B337" s="1" t="n"/>
+      <c r="C337" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>CDLDC</t>
+        </is>
+      </c>
+      <c r="B338" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C338" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n"/>
+      <c r="B339" s="1" t="n"/>
+      <c r="C339" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n"/>
+      <c r="B340" s="1" t="n"/>
+      <c r="C340" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n"/>
+      <c r="B341" s="1" t="n"/>
+      <c r="C341" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n"/>
+      <c r="B342" s="1" t="n"/>
+      <c r="C342" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n"/>
+      <c r="B343" s="1" t="n"/>
+      <c r="C343" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n"/>
+      <c r="B344" s="1" t="n"/>
+      <c r="C344" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n"/>
+      <c r="B345" s="1" t="n"/>
+      <c r="C345" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n"/>
+      <c r="B346" s="1" t="n"/>
+      <c r="C346" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n"/>
+      <c r="B347" s="1" t="n"/>
+      <c r="C347" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n"/>
+      <c r="B348" s="1" t="n"/>
+      <c r="C348" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n"/>
+      <c r="B349" s="1" t="n"/>
+      <c r="C349" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n"/>
+      <c r="B350" s="1" t="n"/>
+      <c r="C350" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n"/>
+      <c r="B351" s="1" t="n"/>
+      <c r="C351" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n"/>
+      <c r="B352" s="1" t="n"/>
+      <c r="C352" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n"/>
+      <c r="B353" s="1" t="n"/>
+      <c r="C353" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n"/>
+      <c r="B354" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C354" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n"/>
+      <c r="B355" s="1" t="n"/>
+      <c r="C355" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n"/>
+      <c r="B356" s="1" t="n"/>
+      <c r="C356" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n"/>
+      <c r="B357" s="1" t="n"/>
+      <c r="C357" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n"/>
+      <c r="B358" s="1" t="n"/>
+      <c r="C358" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n"/>
+      <c r="B359" s="1" t="n"/>
+      <c r="C359" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n"/>
+      <c r="B360" s="1" t="n"/>
+      <c r="C360" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n"/>
+      <c r="B361" s="1" t="n"/>
+      <c r="C361" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n"/>
+      <c r="B362" s="1" t="n"/>
+      <c r="C362" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n"/>
+      <c r="B363" s="1" t="n"/>
+      <c r="C363" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n"/>
+      <c r="B364" s="1" t="n"/>
+      <c r="C364" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n"/>
+      <c r="B365" s="1" t="n"/>
+      <c r="C365" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n"/>
+      <c r="B366" s="1" t="n"/>
+      <c r="C366" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n"/>
+      <c r="B367" s="1" t="n"/>
+      <c r="C367" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n"/>
+      <c r="B368" s="1" t="n"/>
+      <c r="C368" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n"/>
+      <c r="B369" s="1" t="n"/>
+      <c r="C369" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n"/>
+      <c r="B370" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C370" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n"/>
+      <c r="B371" s="1" t="n"/>
+      <c r="C371" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n"/>
+      <c r="B372" s="1" t="n"/>
+      <c r="C372" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n"/>
+      <c r="B373" s="1" t="n"/>
+      <c r="C373" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n"/>
+      <c r="B374" s="1" t="n"/>
+      <c r="C374" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n"/>
+      <c r="B375" s="1" t="n"/>
+      <c r="C375" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n"/>
+      <c r="B376" s="1" t="n"/>
+      <c r="C376" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n"/>
+      <c r="B377" s="1" t="n"/>
+      <c r="C377" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n"/>
+      <c r="B378" s="1" t="n"/>
+      <c r="C378" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n"/>
+      <c r="B379" s="1" t="n"/>
+      <c r="C379" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n"/>
+      <c r="B380" s="1" t="n"/>
+      <c r="C380" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n"/>
+      <c r="B381" s="1" t="n"/>
+      <c r="C381" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n"/>
+      <c r="B382" s="1" t="n"/>
+      <c r="C382" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n"/>
+      <c r="B383" s="1" t="n"/>
+      <c r="C383" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n"/>
+      <c r="B384" s="1" t="n"/>
+      <c r="C384" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n"/>
+      <c r="B385" s="1" t="n"/>
+      <c r="C385" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>CDPI</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C386" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n"/>
+      <c r="B387" s="1" t="n"/>
+      <c r="C387" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n"/>
+      <c r="B388" s="1" t="n"/>
+      <c r="C388" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n"/>
+      <c r="B389" s="1" t="n"/>
+      <c r="C389" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n"/>
+      <c r="B390" s="1" t="n"/>
+      <c r="C390" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n"/>
+      <c r="B391" s="1" t="n"/>
+      <c r="C391" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n"/>
+      <c r="B392" s="1" t="n"/>
+      <c r="C392" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n"/>
+      <c r="B393" s="1" t="n"/>
+      <c r="C393" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n"/>
+      <c r="B394" s="1" t="n"/>
+      <c r="C394" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n"/>
+      <c r="B395" s="1" t="n"/>
+      <c r="C395" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n"/>
+      <c r="B396" s="1" t="n"/>
+      <c r="C396" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n"/>
+      <c r="B397" s="1" t="n"/>
+      <c r="C397" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n"/>
+      <c r="B398" s="1" t="n"/>
+      <c r="C398" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n"/>
+      <c r="B399" s="1" t="n"/>
+      <c r="C399" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n"/>
+      <c r="B400" s="1" t="n"/>
+      <c r="C400" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n"/>
+      <c r="B401" s="1" t="n"/>
+      <c r="C401" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n"/>
+      <c r="B402" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C402" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n"/>
+      <c r="B403" s="1" t="n"/>
+      <c r="C403" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n"/>
+      <c r="B404" s="1" t="n"/>
+      <c r="C404" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n"/>
+      <c r="B405" s="1" t="n"/>
+      <c r="C405" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n"/>
+      <c r="B406" s="1" t="n"/>
+      <c r="C406" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n"/>
+      <c r="B407" s="1" t="n"/>
+      <c r="C407" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n"/>
+      <c r="B408" s="1" t="n"/>
+      <c r="C408" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n"/>
+      <c r="B409" s="1" t="n"/>
+      <c r="C409" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n"/>
+      <c r="B410" s="1" t="n"/>
+      <c r="C410" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n"/>
+      <c r="B411" s="1" t="n"/>
+      <c r="C411" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n"/>
+      <c r="B412" s="1" t="n"/>
+      <c r="C412" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n"/>
+      <c r="B413" s="1" t="n"/>
+      <c r="C413" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n"/>
+      <c r="B414" s="1" t="n"/>
+      <c r="C414" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n"/>
+      <c r="B415" s="1" t="n"/>
+      <c r="C415" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n"/>
+      <c r="B416" s="1" t="n"/>
+      <c r="C416" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n"/>
+      <c r="B417" s="1" t="n"/>
+      <c r="C417" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n"/>
+      <c r="B418" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C418" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n"/>
+      <c r="B419" s="1" t="n"/>
+      <c r="C419" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n"/>
+      <c r="B420" s="1" t="n"/>
+      <c r="C420" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n"/>
+      <c r="B421" s="1" t="n"/>
+      <c r="C421" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n"/>
+      <c r="B422" s="1" t="n"/>
+      <c r="C422" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n"/>
+      <c r="B423" s="1" t="n"/>
+      <c r="C423" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n"/>
+      <c r="B424" s="1" t="n"/>
+      <c r="C424" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n"/>
+      <c r="B425" s="1" t="n"/>
+      <c r="C425" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n"/>
+      <c r="B426" s="1" t="n"/>
+      <c r="C426" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n"/>
+      <c r="B427" s="1" t="n"/>
+      <c r="C427" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n"/>
+      <c r="B428" s="1" t="n"/>
+      <c r="C428" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n"/>
+      <c r="B429" s="1" t="n"/>
+      <c r="C429" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n"/>
+      <c r="B430" s="1" t="n"/>
+      <c r="C430" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n"/>
+      <c r="B431" s="1" t="n"/>
+      <c r="C431" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n"/>
+      <c r="B432" s="1" t="n"/>
+      <c r="C432" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n"/>
+      <c r="B433" s="1" t="n"/>
+      <c r="C433" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
         <is>
           <t>CDVM</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>2025-4</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>6010010007</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B434" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C434" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n"/>
+      <c r="B435" s="1" t="n"/>
+      <c r="C435" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n"/>
+      <c r="B436" s="1" t="n"/>
+      <c r="C436" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n"/>
+      <c r="B437" s="1" t="n"/>
+      <c r="C437" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n"/>
+      <c r="B438" s="1" t="n"/>
+      <c r="C438" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n"/>
+      <c r="B439" s="1" t="n"/>
+      <c r="C439" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n"/>
+      <c r="B440" s="1" t="n"/>
+      <c r="C440" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n"/>
+      <c r="B441" s="1" t="n"/>
+      <c r="C441" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n"/>
+      <c r="B442" s="1" t="n"/>
+      <c r="C442" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n"/>
+      <c r="B443" s="1" t="n"/>
+      <c r="C443" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n"/>
+      <c r="B444" s="1" t="n"/>
+      <c r="C444" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>144</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n"/>
+      <c r="B445" s="1" t="n"/>
+      <c r="C445" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n"/>
+      <c r="B446" s="1" t="n"/>
+      <c r="C446" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+      <c r="E446" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n"/>
+      <c r="B447" s="1" t="n"/>
+      <c r="C447" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n"/>
+      <c r="B448" s="1" t="n"/>
+      <c r="C448" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n"/>
+      <c r="B449" s="1" t="n"/>
+      <c r="C449" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n"/>
+      <c r="B450" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C450" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n"/>
+      <c r="B451" s="1" t="n"/>
+      <c r="C451" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E451" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n"/>
+      <c r="B452" s="1" t="n"/>
+      <c r="C452" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n"/>
+      <c r="B453" s="1" t="n"/>
+      <c r="C453" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>2</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n"/>
+      <c r="B454" s="1" t="n"/>
+      <c r="C454" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>640</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n"/>
+      <c r="B455" s="1" t="n"/>
+      <c r="C455" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>544</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n"/>
+      <c r="B456" s="1" t="n"/>
+      <c r="C456" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E456" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n"/>
+      <c r="B457" s="1" t="n"/>
+      <c r="C457" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n"/>
+      <c r="B458" s="1" t="n"/>
+      <c r="C458" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n"/>
+      <c r="B459" s="1" t="n"/>
+      <c r="C459" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n"/>
+      <c r="B460" s="1" t="n"/>
+      <c r="C460" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n"/>
+      <c r="B461" s="1" t="n"/>
+      <c r="C461" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n"/>
+      <c r="B462" s="1" t="n"/>
+      <c r="C462" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E462" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n"/>
+      <c r="B463" s="1" t="n"/>
+      <c r="C463" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n"/>
+      <c r="B464" s="1" t="n"/>
+      <c r="C464" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n"/>
+      <c r="B465" s="1" t="n"/>
+      <c r="C465" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>800</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n"/>
+      <c r="B466" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C466" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0</v>
+      </c>
+      <c r="E466" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n"/>
+      <c r="B467" s="1" t="n"/>
+      <c r="C467" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n"/>
+      <c r="B468" s="1" t="n"/>
+      <c r="C468" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n"/>
+      <c r="B469" s="1" t="n"/>
+      <c r="C469" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>398</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n"/>
+      <c r="B470" s="1" t="n"/>
+      <c r="C470" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n"/>
+      <c r="B471" s="1" t="n"/>
+      <c r="C471" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n"/>
+      <c r="B472" s="1" t="n"/>
+      <c r="C472" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>0</v>
+      </c>
+      <c r="E472" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n"/>
+      <c r="B473" s="1" t="n"/>
+      <c r="C473" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>200</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n"/>
+      <c r="B474" s="1" t="n"/>
+      <c r="C474" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n"/>
+      <c r="B475" s="1" t="n"/>
+      <c r="C475" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>122</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n"/>
+      <c r="B476" s="1" t="n"/>
+      <c r="C476" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n"/>
+      <c r="B477" s="1" t="n"/>
+      <c r="C477" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n"/>
+      <c r="B478" s="1" t="n"/>
+      <c r="C478" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
+      <c r="E478" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n"/>
+      <c r="B479" s="1" t="n"/>
+      <c r="C479" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n"/>
+      <c r="B480" s="1" t="n"/>
+      <c r="C480" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n"/>
+      <c r="B481" s="1" t="n"/>
+      <c r="C481" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>CDVMZPA</t>
+        </is>
+      </c>
+      <c r="B482" s="1" t="inlineStr">
+        <is>
+          <t>2024-2</t>
+        </is>
+      </c>
+      <c r="C482" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n"/>
+      <c r="B483" s="1" t="n"/>
+      <c r="C483" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n"/>
+      <c r="B484" s="1" t="n"/>
+      <c r="C484" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n"/>
+      <c r="B485" s="1" t="n"/>
+      <c r="C485" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n"/>
+      <c r="B486" s="1" t="n"/>
+      <c r="C486" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n"/>
+      <c r="B487" s="1" t="n"/>
+      <c r="C487" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n"/>
+      <c r="B488" s="1" t="n"/>
+      <c r="C488" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n"/>
+      <c r="B489" s="1" t="n"/>
+      <c r="C489" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n"/>
+      <c r="B490" s="1" t="n"/>
+      <c r="C490" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n"/>
+      <c r="B491" s="1" t="n"/>
+      <c r="C491" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n"/>
+      <c r="B492" s="1" t="n"/>
+      <c r="C492" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n"/>
+      <c r="B493" s="1" t="n"/>
+      <c r="C493" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n"/>
+      <c r="B494" s="1" t="n"/>
+      <c r="C494" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n"/>
+      <c r="B495" s="1" t="n"/>
+      <c r="C495" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n"/>
+      <c r="B496" s="1" t="n"/>
+      <c r="C496" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n"/>
+      <c r="B497" s="1" t="n"/>
+      <c r="C497" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n"/>
+      <c r="B498" s="1" t="inlineStr">
+        <is>
+          <t>2024-3</t>
+        </is>
+      </c>
+      <c r="C498" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n"/>
+      <c r="B499" s="1" t="n"/>
+      <c r="C499" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n"/>
+      <c r="B500" s="1" t="n"/>
+      <c r="C500" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n"/>
+      <c r="B501" s="1" t="n"/>
+      <c r="C501" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n"/>
+      <c r="B502" s="1" t="n"/>
+      <c r="C502" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n"/>
+      <c r="B503" s="1" t="n"/>
+      <c r="C503" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n"/>
+      <c r="B504" s="1" t="n"/>
+      <c r="C504" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n"/>
+      <c r="B505" s="1" t="n"/>
+      <c r="C505" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n"/>
+      <c r="B506" s="1" t="n"/>
+      <c r="C506" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n"/>
+      <c r="B507" s="1" t="n"/>
+      <c r="C507" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n"/>
+      <c r="B508" s="1" t="n"/>
+      <c r="C508" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n"/>
+      <c r="B509" s="1" t="n"/>
+      <c r="C509" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n"/>
+      <c r="B510" s="1" t="n"/>
+      <c r="C510" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n"/>
+      <c r="B511" s="1" t="n"/>
+      <c r="C511" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n"/>
+      <c r="B512" s="1" t="n"/>
+      <c r="C512" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n"/>
+      <c r="B513" s="1" t="n"/>
+      <c r="C513" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n"/>
+      <c r="B514" s="1" t="inlineStr">
+        <is>
+          <t>2024-4</t>
+        </is>
+      </c>
+      <c r="C514" s="1" t="inlineStr">
+        <is>
+          <t>6030010007</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n"/>
+      <c r="B515" s="1" t="n"/>
+      <c r="C515" s="1" t="inlineStr">
+        <is>
+          <t>6030010026</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n"/>
+      <c r="B516" s="1" t="n"/>
+      <c r="C516" s="1" t="inlineStr">
+        <is>
+          <t>6030010129</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n"/>
+      <c r="B517" s="1" t="n"/>
+      <c r="C517" s="1" t="inlineStr">
+        <is>
+          <t>6030040007</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n"/>
+      <c r="B518" s="1" t="n"/>
+      <c r="C518" s="1" t="inlineStr">
+        <is>
+          <t>6030040040</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n"/>
+      <c r="B519" s="1" t="n"/>
+      <c r="C519" s="1" t="inlineStr">
+        <is>
+          <t>6030040073</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n"/>
+      <c r="B520" s="1" t="n"/>
+      <c r="C520" s="1" t="inlineStr">
+        <is>
+          <t>6030050071</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n"/>
+      <c r="B521" s="1" t="n"/>
+      <c r="C521" s="1" t="inlineStr">
+        <is>
+          <t>6030330001</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n"/>
+      <c r="B522" s="1" t="n"/>
+      <c r="C522" s="1" t="inlineStr">
+        <is>
+          <t>6040100001</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n"/>
+      <c r="B523" s="1" t="n"/>
+      <c r="C523" s="1" t="inlineStr">
+        <is>
+          <t>6040100003</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n"/>
+      <c r="B524" s="1" t="n"/>
+      <c r="C524" s="1" t="inlineStr">
+        <is>
+          <t>6040100009</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n"/>
+      <c r="B525" s="1" t="n"/>
+      <c r="C525" s="1" t="inlineStr">
+        <is>
+          <t>6050100001</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n"/>
+      <c r="B526" s="1" t="n"/>
+      <c r="C526" s="1" t="inlineStr">
+        <is>
+          <t>6050100004</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n"/>
+      <c r="B527" s="1" t="n"/>
+      <c r="C527" s="1" t="inlineStr">
+        <is>
+          <t>6050100007</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n"/>
+      <c r="B528" s="1" t="n"/>
+      <c r="C528" s="1" t="inlineStr">
+        <is>
+          <t>6090020009</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n"/>
+      <c r="B529" s="1" t="n"/>
+      <c r="C529" s="1" t="inlineStr">
+        <is>
+          <t>6090020011</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A98:A145"/>
+    <mergeCell ref="B514:B529"/>
+    <mergeCell ref="A338:A385"/>
+    <mergeCell ref="B402:B417"/>
+    <mergeCell ref="B146:B161"/>
+    <mergeCell ref="B338:B353"/>
+    <mergeCell ref="B258:B273"/>
+    <mergeCell ref="B178:B193"/>
+    <mergeCell ref="B34:B49"/>
+    <mergeCell ref="B466:B481"/>
+    <mergeCell ref="B162:B177"/>
+    <mergeCell ref="B226:B241"/>
+    <mergeCell ref="A50:A97"/>
+    <mergeCell ref="A146:A193"/>
+    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="B354:B369"/>
+    <mergeCell ref="A242:A289"/>
+    <mergeCell ref="B306:B321"/>
+    <mergeCell ref="B434:B449"/>
+    <mergeCell ref="A434:A481"/>
+    <mergeCell ref="B498:B513"/>
+    <mergeCell ref="B418:B433"/>
+    <mergeCell ref="B194:B209"/>
+    <mergeCell ref="B386:B401"/>
+    <mergeCell ref="B482:B497"/>
+    <mergeCell ref="B66:B81"/>
+    <mergeCell ref="A2:A49"/>
+    <mergeCell ref="B50:B65"/>
+    <mergeCell ref="B450:B465"/>
+    <mergeCell ref="B370:B385"/>
+    <mergeCell ref="B130:B145"/>
+    <mergeCell ref="A194:A241"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A386:A433"/>
+    <mergeCell ref="B242:B257"/>
+    <mergeCell ref="A290:A337"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="B322:B337"/>
+    <mergeCell ref="B98:B113"/>
+    <mergeCell ref="A482:A529"/>
+    <mergeCell ref="B290:B305"/>
+    <mergeCell ref="B82:B97"/>
+    <mergeCell ref="B274:B289"/>
+    <mergeCell ref="B210:B225"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>